--- a/Definition of Done1.1.xlsx
+++ b/Definition of Done1.1.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>X</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Pütter</t>
+  </si>
+  <si>
+    <t>MVP 2.0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Pütter/Hesse</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +506,9 @@
       <c r="H1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="3"/>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
@@ -521,7 +532,9 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -545,7 +558,9 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -569,7 +584,9 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -593,7 +610,9 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -617,7 +636,9 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -638,6 +659,9 @@
       <c r="F8" s="4" t="s">
         <v>16</v>
       </c>
+      <c r="I8" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Definition of Done1.1.xlsx
+++ b/Definition of Done1.1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dozent\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifernetzler/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D0407C-D51D-1D44-AB10-4DDBBA8CA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition of Done" sheetId="2" r:id="rId1"/>
@@ -19,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>X</t>
   </si>
@@ -93,12 +85,18 @@
   </si>
   <si>
     <t>Pütter/Hesse</t>
+  </si>
+  <si>
+    <t>E-Mail Dozentenumfrage Aufwandbereitschaft</t>
+  </si>
+  <si>
+    <t>Heiser/ Netzler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +151,9 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -468,20 +469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="178.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="179" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -509,11 +510,13 @@
       <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="3"/>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -535,11 +538,13 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -561,11 +566,13 @@
       <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -587,11 +594,13 @@
       <c r="I4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -613,11 +622,13 @@
       <c r="I5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -639,11 +650,13 @@
       <c r="I6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -661,6 +674,9 @@
       </c>
       <c r="I8" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Definition of Done1.1.xlsx
+++ b/Definition of Done1.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifernetzler/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D0407C-D51D-1D44-AB10-4DDBBA8CA753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF1EEC-8952-4166-92A0-18B2AF3740E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-2805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition of Done" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -87,10 +87,16 @@
     <t>Pütter/Hesse</t>
   </si>
   <si>
-    <t>E-Mail Dozentenumfrage Aufwandbereitschaft</t>
-  </si>
-  <si>
-    <t>Heiser/ Netzler</t>
+    <t xml:space="preserve">Hesse </t>
+  </si>
+  <si>
+    <t>E-Mail Dozentenumfrage Aufwandsbereitschaft</t>
+  </si>
+  <si>
+    <t>Heiser / Netzler</t>
+  </si>
+  <si>
+    <t>Dozentenumfrage Aufwandsbereitschaft</t>
   </si>
 </sst>
 </file>
@@ -141,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -151,9 +157,6 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -473,16 +476,24 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" customWidth="1"/>
+    <col min="4" max="4" width="7.7265625" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" customWidth="1"/>
+    <col min="7" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="178.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -511,16 +522,20 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,16 +554,18 @@
         <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -567,16 +584,18 @@
         <v>18</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -595,16 +614,18 @@
         <v>18</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,16 +644,18 @@
         <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,15 +674,18 @@
         <v>18</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
@@ -675,8 +701,8 @@
       <c r="I8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>21</v>
+      <c r="J8" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Definition of Done1.1.xlsx
+++ b/Definition of Done1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susanna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DBF1EEC-8952-4166-92A0-18B2AF3740E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE21247-D83A-495D-B8A2-1F5E790D9C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2805" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="24">
   <si>
     <t>X</t>
   </si>
@@ -476,7 +476,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -489,7 +489,8 @@
     <col min="6" max="6" width="6.6328125" customWidth="1"/>
     <col min="7" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.08984375" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" customWidth="1"/>
+    <col min="10" max="10" width="14.26953125" customWidth="1"/>
+    <col min="11" max="11" width="12.08984375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,7 +557,9 @@
       <c r="J2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -586,7 +589,9 @@
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -616,7 +621,9 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="1"/>
+      <c r="K4" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -646,7 +653,9 @@
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -676,7 +685,9 @@
       <c r="J6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -704,6 +715,9 @@
       <c r="J8" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="K8" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
